--- a/big-data/big-data-capstone/project/data/beer_n_Kabrew Hoptandu IPA.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Kabrew Hoptandu IPA.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ratman197(23,244)
+          <t>Ratman197(23,252)
 🇺🇸Denver, United States
 3.4May 4, 2018
 Poured a clear orange amber with a small lingering ivory head. Aromas of biscuit, earthiness, light grapefruit and light pine. Palate was light to medium bodied and crisp with a smooth…
